--- a/LaTeX/PreliminaryWork/Graphs/Temperature.xlsx
+++ b/LaTeX/PreliminaryWork/Graphs/Temperature.xlsx
@@ -48,7 +48,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -56,16 +56,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -229,11 +277,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="88871680"/>
-        <c:axId val="92209920"/>
+        <c:axId val="158820992"/>
+        <c:axId val="158823168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="88871680"/>
+        <c:axId val="158820992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -262,7 +310,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92209920"/>
+        <c:crossAx val="158823168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -270,7 +318,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92209920"/>
+        <c:axId val="158823168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -300,7 +348,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88871680"/>
+        <c:crossAx val="158820992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -639,30 +687,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C13"/>
+  <dimension ref="B1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B3:B13"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="1">
+    <row r="3" spans="2:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
         <v>0</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="4">
         <v>25</v>
       </c>
     </row>

--- a/LaTeX/PreliminaryWork/Graphs/Temperature.xlsx
+++ b/LaTeX/PreliminaryWork/Graphs/Temperature.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -277,11 +277,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="158820992"/>
-        <c:axId val="158823168"/>
+        <c:axId val="80926976"/>
+        <c:axId val="56627968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="158820992"/>
+        <c:axId val="80926976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -294,10 +294,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1400"/>
                   <a:t>Time (s)</a:t>
                 </a:r>
               </a:p>
@@ -310,7 +310,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158823168"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="56627968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -318,7 +328,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="158823168"/>
+        <c:axId val="56627968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -332,10 +342,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1400"/>
                   <a:t>Temperature(°C) </a:t>
                 </a:r>
               </a:p>
@@ -348,7 +358,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158820992"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="80926976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -370,15 +390,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>314324</xdr:colOff>
+      <xdr:colOff>314323</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>14286</xdr:rowOff>
+      <xdr:rowOff>14285</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>464837</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>470646</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>74381</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -689,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
